--- a/Modello/nuovi modelli/inputTesiModificati/test4/DMU/dmu-13.xlsx
+++ b/Modello/nuovi modelli/inputTesiModificati/test4/DMU/dmu-13.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="19">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,25 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.666667</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +172,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +437,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +479,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
